--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.429446</v>
+        <v>8.799974000000001</v>
       </c>
       <c r="N2">
-        <v>34.288338</v>
+        <v>26.399922</v>
       </c>
       <c r="O2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="P2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="Q2">
-        <v>4.826186438514</v>
+        <v>3.715868221266</v>
       </c>
       <c r="R2">
-        <v>43.43567794662601</v>
+        <v>33.442813991394</v>
       </c>
       <c r="S2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="T2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>79.081869</v>
       </c>
       <c r="O3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="P3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="Q3">
         <v>11.131010307357</v>
@@ -635,10 +635,10 @@
         <v>100.179092766213</v>
       </c>
       <c r="S3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="T3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.731426</v>
+        <v>23.07309566666667</v>
       </c>
       <c r="N4">
-        <v>44.194278</v>
+        <v>69.21928700000001</v>
       </c>
       <c r="O4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="P4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="Q4">
-        <v>6.220477211334</v>
+        <v>9.742822303111002</v>
       </c>
       <c r="R4">
-        <v>55.984294902006</v>
+        <v>87.68540072799901</v>
       </c>
       <c r="S4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="T4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3560123333333333</v>
+        <v>0.3460956666666666</v>
       </c>
       <c r="N5">
-        <v>1.068037</v>
+        <v>1.038287</v>
       </c>
       <c r="O5">
-        <v>0.006732774506352486</v>
+        <v>0.005908107156299329</v>
       </c>
       <c r="P5">
-        <v>0.006732774506352486</v>
+        <v>0.00590810715629933</v>
       </c>
       <c r="Q5">
-        <v>0.150329411861</v>
+        <v>0.146142010111</v>
       </c>
       <c r="R5">
-        <v>1.352964706749</v>
+        <v>1.315278090999</v>
       </c>
       <c r="S5">
-        <v>0.006732774506352486</v>
+        <v>0.005908107156299329</v>
       </c>
       <c r="T5">
-        <v>0.006732774506352486</v>
+        <v>0.00590810715629933</v>
       </c>
     </row>
   </sheetData>
